--- a/docs/StructureDefinition-VAChemLabReport.xlsx
+++ b/docs/StructureDefinition-VAChemLabReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="351">
   <si>
     <t>Path</t>
   </si>
@@ -326,243 +326,240 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier for report</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this report by the performer or other systems.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>What was requested</t>
+  </si>
+  <si>
+    <t>Details concerning a test or procedure requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>registered | partial | preliminary | final +</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report as a whole.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications need to take appropriate action if a report is withdrawn.</t>
+  </si>
+  <si>
+    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>OBR-25 (not 1:1 mapping)</t>
+  </si>
+  <si>
+    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Service category</t>
+  </si>
+  <si>
+    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
+    <t>Name/Code for this diagnostic report</t>
+  </si>
+  <si>
+    <t>A code or name that describes this diagnostic report.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>What was requested</t>
-  </si>
-  <si>
-    <t>Details concerning a test or procedure requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.status</t>
-  </si>
-  <si>
-    <t>registered | partial | preliminary | final +</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report as a whole.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications need to take appropriate action if a report is withdrawn.</t>
-  </si>
-  <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>OBR-25 (not 1:1 mapping)</t>
-  </si>
-  <si>
-    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category</t>
-  </si>
-  <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Service category</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2242,7 +2239,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2261,15 +2258,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2306,14 +2305,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>104</v>
@@ -2340,7 +2341,7 @@
         <v>44</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>44</v>
@@ -2352,7 +2353,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2371,16 +2372,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2430,7 +2431,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2462,11 +2463,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2485,19 +2486,19 @@
         <v>55</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2546,7 +2547,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2564,25 +2565,25 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2601,19 +2602,19 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2662,7 +2663,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2680,13 +2681,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2694,7 +2695,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2720,16 +2721,16 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2754,13 +2755,13 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>44</v>
@@ -2778,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>54</v>
@@ -2796,25 +2797,25 @@
         <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2833,16 +2834,16 @@
         <v>55</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2868,14 +2869,14 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>44</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2913,22 +2914,22 @@
         <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2947,13 +2948,13 @@
         <v>55</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2980,14 +2981,14 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>44</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>54</v>
@@ -3022,21 +3023,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3059,13 +3060,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3116,7 +3117,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3140,7 +3141,7 @@
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3148,11 +3149,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3171,16 +3172,16 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3218,19 +3219,19 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3254,7 +3255,7 @@
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3262,7 +3263,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3285,19 +3286,19 @@
         <v>55</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3346,7 +3347,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3367,10 +3368,10 @@
         <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3378,14 +3379,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>42</v>
@@ -3403,19 +3404,19 @@
         <v>55</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3464,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3479,16 +3480,16 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3496,11 +3497,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3519,17 +3520,17 @@
         <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3578,7 +3579,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3596,25 +3597,25 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3633,19 +3634,19 @@
         <v>55</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3694,7 +3695,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3712,25 +3713,25 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3749,19 +3750,19 @@
         <v>55</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3810,7 +3811,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3828,28 +3829,28 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="D23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>42</v>
@@ -3867,19 +3868,19 @@
         <v>55</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3928,7 +3929,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3943,28 +3944,28 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3983,13 +3984,13 @@
         <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4040,7 +4041,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4052,27 +4053,27 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4095,13 +4096,13 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4152,7 +4153,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4176,7 +4177,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4184,11 +4185,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4207,16 +4208,16 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4266,7 +4267,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4290,7 +4291,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4298,11 +4299,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4321,16 +4322,16 @@
         <v>55</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4380,7 +4381,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4412,7 +4413,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4435,13 +4436,13 @@
         <v>55</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4468,14 +4469,14 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4510,13 +4511,13 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4524,7 +4525,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4547,19 +4548,19 @@
         <v>55</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4608,7 +4609,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>54</v>
@@ -4626,13 +4627,13 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4640,7 +4641,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4663,13 +4664,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4720,7 +4721,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4744,7 +4745,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4752,11 +4753,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4775,16 +4776,16 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4822,19 +4823,19 @@
         <v>44</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4858,7 +4859,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4866,7 +4867,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4889,16 +4890,16 @@
         <v>55</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4948,7 +4949,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4957,7 +4958,7 @@
         <v>54</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>44</v>
@@ -4980,7 +4981,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5003,16 +5004,16 @@
         <v>55</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5062,7 +5063,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5086,7 +5087,7 @@
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5094,14 +5095,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E34" t="s" s="2">
         <v>42</v>
@@ -5119,16 +5120,16 @@
         <v>55</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5178,7 +5179,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5193,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -5210,7 +5211,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5233,19 +5234,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5294,7 +5295,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5315,10 +5316,10 @@
         <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5326,11 +5327,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5349,17 +5350,17 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5408,7 +5409,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5429,10 +5430,10 @@
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5440,7 +5441,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5463,16 +5464,16 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5522,7 +5523,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5546,7 +5547,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5554,11 +5555,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5577,17 +5578,17 @@
         <v>55</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5636,7 +5637,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5648,7 +5649,7 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
@@ -5657,10 +5658,10 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5668,7 +5669,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5691,13 +5692,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5748,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5772,7 +5773,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5780,11 +5781,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5803,16 +5804,16 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5862,7 +5863,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5886,7 +5887,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -5894,11 +5895,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5917,16 +5918,16 @@
         <v>55</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5976,7 +5977,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6008,7 +6009,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6031,19 +6032,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6092,7 +6093,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6116,7 +6117,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6124,7 +6125,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6147,13 +6148,13 @@
         <v>55</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6204,7 +6205,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>54</v>
@@ -6228,7 +6229,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6236,11 +6237,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6259,17 +6260,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6318,7 +6319,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6339,10 +6340,10 @@
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6350,7 +6351,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6373,13 +6374,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6406,14 +6407,14 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6451,10 +6452,10 @@
         <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6462,7 +6463,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6485,19 +6486,19 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6546,7 +6547,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6567,10 +6568,10 @@
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
